--- a/doc/项目进度.xlsx
+++ b/doc/项目进度.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="12270" windowHeight="4980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>功能完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +137,10 @@
   </si>
   <si>
     <t>王健</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -512,7 +517,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -544,7 +549,9 @@
       <c r="B2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">

--- a/doc/项目进度.xlsx
+++ b/doc/项目进度.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2715" windowWidth="12270" windowHeight="4980"/>
@@ -11,13 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>功能完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,12 +141,16 @@
     <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,7 +231,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -302,7 +305,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -337,7 +339,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -513,14 +514,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="5" customWidth="1"/>
@@ -528,7 +529,7 @@
     <col min="4" max="4" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -542,7 +543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -553,16 +554,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -571,7 +574,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -580,7 +583,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -588,7 +591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -596,7 +599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -604,7 +607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -612,7 +615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -620,7 +623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -628,7 +631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -636,7 +639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -644,7 +647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -652,7 +655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -660,7 +663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -668,7 +671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -676,7 +679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -684,7 +687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -692,7 +695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
@@ -700,7 +703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -716,12 +719,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -729,12 +732,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/项目进度.xlsx
+++ b/doc/项目进度.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2715" windowWidth="12270" windowHeight="4980"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>功能完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,12 +145,20 @@
     <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>王健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尧峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,7 +239,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -305,6 +313,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -339,6 +348,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,14 +524,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="5" customWidth="1"/>
@@ -529,7 +539,7 @@
     <col min="4" max="4" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -543,7 +553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -554,7 +564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -565,7 +575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -574,7 +584,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -583,7 +593,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -591,7 +601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -599,7 +609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -607,7 +617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -615,7 +625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -623,7 +633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -631,7 +641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -639,7 +649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -647,7 +657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -655,23 +665,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -679,7 +689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -687,23 +697,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -719,12 +729,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -732,12 +742,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/项目进度.xlsx
+++ b/doc/项目进度.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2715" windowWidth="12270" windowHeight="4980"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>功能完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,12 +145,16 @@
     <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,7 +235,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -305,6 +309,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -339,6 +344,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,14 +520,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="5" customWidth="1"/>
@@ -529,7 +535,7 @@
     <col min="4" max="4" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -543,7 +549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -554,7 +560,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -565,16 +571,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -583,7 +591,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -591,7 +599,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -599,7 +607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -607,7 +615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -615,7 +623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -623,7 +631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -631,7 +639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -639,7 +647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -647,7 +655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -655,7 +663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -663,7 +671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -671,7 +679,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -679,7 +687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -687,7 +695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -695,7 +703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
@@ -703,7 +711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -719,12 +727,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -732,12 +740,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/项目进度.xlsx
+++ b/doc/项目进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>功能完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>尧峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +532,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -582,7 +586,9 @@
       <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">

--- a/doc/项目进度.xlsx
+++ b/doc/项目进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>功能完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>尧峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -532,7 +536,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -540,7 +544,7 @@
     <col min="1" max="1" width="23.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -566,6 +570,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">

--- a/doc/项目进度.xlsx
+++ b/doc/项目进度.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2715" windowWidth="12270" windowHeight="4980"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>功能完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,14 @@
   </si>
   <si>
     <t>尧峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -535,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -613,6 +621,9 @@
       <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
@@ -653,6 +664,9 @@
       <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -694,7 +708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -702,7 +716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -710,7 +724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -718,7 +732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
@@ -726,12 +740,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/doc/项目进度.xlsx
+++ b/doc/项目进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>功能完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,10 +143,6 @@
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王健</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -536,7 +532,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -572,7 +568,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -594,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -643,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -651,7 +647,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -683,7 +679,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -691,7 +687,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -715,7 +711,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">

--- a/doc/项目进度.xlsx
+++ b/doc/项目进度.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2715" windowWidth="12270" windowHeight="4980"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>功能完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>尧峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -543,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -604,6 +608,9 @@
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -647,6 +654,9 @@
       </c>
       <c r="B9" s="6" t="s">
         <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
